--- a/biology/Médecine/Maurice_Krishaber/Maurice_Krishaber.xlsx
+++ b/biology/Médecine/Maurice_Krishaber/Maurice_Krishaber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Krishaber, né Krishaber Mór[1] à Feketehegy[2] (Hongrie, aujourd'hui en Serbie) le 3 avril 1836[3] et mort à Mulhouse le 10 avril 1883[1], est un médecin otorhinolaryngologiste hongrois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Krishaber, né Krishaber Mór à Feketehegy (Hongrie, aujourd'hui en Serbie) le 3 avril 1836 et mort à Mulhouse le 10 avril 1883, est un médecin otorhinolaryngologiste hongrois.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en Hongrie, il fait ses études de médecine à Vienne et Prague puis les termine à Paris y soutenant le 31 août 1864 une thèse intitulée : Considérations sur l'historique et le développement de l'encéphale[4]. Le 9 avril 1872 il est naturalisé français[3],[5].
-Il perfectionne la  canule de trachéotomie qui porte son nom[6].
-Il donne son  nom à la maladie de Krishaber caractérisée par l'association tachycardie, vertige et insomnie[7], connue aussi sous le nom de « névropathie cérébro-cardiaque » et classifiée par Freud comme une « névrose obsessionnelle »[8].
-Ses travaux ont pour principal objet la laryngologie. Il fonde avec Ladreit de Lacharrière et Émile Isambert (d)[9], les Annales des maladies de l'oreille et du larynx[10].
-Il obtient le prix Montyon de médecine et chirurgie en 1882[11]. Il meurt à Paris le 10 avril 1883[12],[13]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en Hongrie, il fait ses études de médecine à Vienne et Prague puis les termine à Paris y soutenant le 31 août 1864 une thèse intitulée : Considérations sur l'historique et le développement de l'encéphale. Le 9 avril 1872 il est naturalisé français,.
+Il perfectionne la  canule de trachéotomie qui porte son nom.
+Il donne son  nom à la maladie de Krishaber caractérisée par l'association tachycardie, vertige et insomnie, connue aussi sous le nom de « névropathie cérébro-cardiaque » et classifiée par Freud comme une « névrose obsessionnelle ».
+Ses travaux ont pour principal objet la laryngologie. Il fonde avec Ladreit de Lacharrière et Émile Isambert (d), les Annales des maladies de l'oreille et du larynx.
+Il obtient le prix Montyon de médecine et chirurgie en 1882. Il meurt à Paris le 10 avril 1883,
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans le Dictionnaire des Sciences médicales :
 Maladies du larynx (1868)
@@ -582,9 +598,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur par décret du 30 juillet 1878[14].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur par décret du 30 juillet 1878.</t>
         </is>
       </c>
     </row>
@@ -612,9 +630,11 @@
           <t>Résidence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il habitait 6, rue du Mont-Thabor à Paris[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habitait 6, rue du Mont-Thabor à Paris.
 </t>
         </is>
       </c>
